--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_431__Reeval_Taguchi_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_431__Reeval_Taguchi_Modell_1.2.xlsx
@@ -5423,7 +5423,7 @@
                   <c:v>4.642919540405273</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.1072998046875</c:v>
+                  <c:v>30.10729789733887</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9.156167030334473</c:v>
@@ -5432,10 +5432,10 @@
                   <c:v>97.21896362304688</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.81469345092773</c:v>
+                  <c:v>34.81468200683594</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.738556385040283</c:v>
+                  <c:v>-5.738550662994385</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-5.735764026641846</c:v>
@@ -5450,7 +5450,7 @@
                   <c:v>97.14127349853516</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-5.708852767944336</c:v>
+                  <c:v>-5.708858966827393</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-5.734067440032959</c:v>
@@ -5492,7 +5492,7 @@
                   <c:v>-2.530470371246338</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-5.740082263946533</c:v>
+                  <c:v>-5.740076541900635</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-4.756346702575684</c:v>
@@ -5501,10 +5501,10 @@
                   <c:v>-5.707698345184326</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>80.25629425048828</c:v>
+                  <c:v>80.25630187988281</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-5.741720199584961</c:v>
+                  <c:v>-5.741725921630859</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>97.18421936035156</c:v>
@@ -5513,13 +5513,13 @@
                   <c:v>97.01898193359375</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-5.741372585296631</c:v>
+                  <c:v>-5.741384506225586</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>89.82601165771484</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-4.054388523101807</c:v>
+                  <c:v>-4.054394245147705</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>97.17945861816406</c:v>
@@ -5531,7 +5531,7 @@
                   <c:v>91.82414245605469</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>62.38095474243164</c:v>
+                  <c:v>62.38095855712891</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>43.54435729980469</c:v>
@@ -5549,7 +5549,7 @@
                   <c:v>97.14885711669922</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-5.738350391387939</c:v>
+                  <c:v>-5.738344669342041</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-5.732317924499512</c:v>
@@ -5564,10 +5564,10 @@
                   <c:v>-5.754144668579102</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>95.51821136474609</c:v>
+                  <c:v>95.51820373535156</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>74.10772705078125</c:v>
+                  <c:v>74.10773468017578</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>-1.9243243932724</c:v>
@@ -5582,7 +5582,7 @@
                   <c:v>97.18913269042969</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-5.741743564605713</c:v>
+                  <c:v>-5.741737842559814</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>97.17544555664062</c:v>
@@ -5591,7 +5591,7 @@
                   <c:v>97.22097778320312</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-4.890490055084229</c:v>
+                  <c:v>-4.890483856201172</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>97.17822265625</c:v>
@@ -5612,13 +5612,13 @@
                   <c:v>97.08211517333984</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-5.697123527526855</c:v>
+                  <c:v>-5.697129249572754</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>25.68290328979492</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-5.736500263214111</c:v>
+                  <c:v>-5.736506462097168</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>97.17008972167969</c:v>
@@ -5627,10 +5627,10 @@
                   <c:v>96.52263641357422</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>97.04310607910156</c:v>
+                  <c:v>97.04309844970703</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>91.67308807373047</c:v>
+                  <c:v>91.673095703125</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>96.90602111816406</c:v>
@@ -5642,19 +5642,19 @@
                   <c:v>97.22084808349609</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>97.19589996337891</c:v>
+                  <c:v>97.19589233398438</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>91.2847900390625</c:v>
+                  <c:v>91.28479766845703</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>93.71784210205078</c:v>
+                  <c:v>93.71784973144531</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>-5.452772617340088</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-2.973361730575562</c:v>
+                  <c:v>-2.973364591598511</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>97.2218017578125</c:v>
@@ -5666,22 +5666,22 @@
                   <c:v>-5.736824512481689</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-4.122543811798096</c:v>
+                  <c:v>-4.122555732727051</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>97.18345642089844</c:v>
+                  <c:v>97.18346405029297</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-5.73928689956665</c:v>
+                  <c:v>-5.739281177520752</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>11.04761219024658</c:v>
+                  <c:v>11.04761600494385</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>97.13642883300781</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-5.164585590362549</c:v>
+                  <c:v>-5.164579391479492</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>94.16947174072266</c:v>
@@ -6443,7 +6443,7 @@
         <v>31.3344</v>
       </c>
       <c r="F4">
-        <v>30.1072998046875</v>
+        <v>30.10729789733887</v>
       </c>
       <c r="G4">
         <v>99</v>
@@ -6539,7 +6539,7 @@
         <v>48.757</v>
       </c>
       <c r="F7">
-        <v>34.81469345092773</v>
+        <v>34.81468200683594</v>
       </c>
       <c r="G7">
         <v>99</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-5.738556385040283</v>
+        <v>-5.738550662994385</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-5.708852767944336</v>
+        <v>-5.708858966827393</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-5.740082263946533</v>
+        <v>-5.740076541900635</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7011,7 +7011,7 @@
         <v>77.453</v>
       </c>
       <c r="F30">
-        <v>80.25629425048828</v>
+        <v>80.25630187988281</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>-5.741720199584961</v>
+        <v>-5.741725921630859</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>-5.741372585296631</v>
+        <v>-5.741384506225586</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>-4.054388523101807</v>
+        <v>-4.054394245147705</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>60.3363</v>
       </c>
       <c r="F40">
-        <v>62.38095474243164</v>
+        <v>62.38095855712891</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>-5.738350391387939</v>
+        <v>-5.738344669342041</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>95.00530000000001</v>
       </c>
       <c r="F51">
-        <v>95.51821136474609</v>
+        <v>95.51820373535156</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>81.8018</v>
       </c>
       <c r="F52">
-        <v>74.10772705078125</v>
+        <v>74.10773468017578</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>-5.741743564605713</v>
+        <v>-5.741737842559814</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>-4.890490055084229</v>
+        <v>-4.890483856201172</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-5.697123527526855</v>
+        <v>-5.697129249572754</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>-5.736500263214111</v>
+        <v>-5.736506462097168</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>98.3015</v>
       </c>
       <c r="F72">
-        <v>97.04310607910156</v>
+        <v>97.04309844970703</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>89.2407</v>
       </c>
       <c r="F73">
-        <v>91.67308807373047</v>
+        <v>91.673095703125</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>98.31310000000001</v>
       </c>
       <c r="F77">
-        <v>97.19589996337891</v>
+        <v>97.19589233398438</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>79.8989</v>
       </c>
       <c r="F78">
-        <v>91.2847900390625</v>
+        <v>91.28479766845703</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>88.10899999999999</v>
       </c>
       <c r="F79">
-        <v>93.71784210205078</v>
+        <v>93.71784973144531</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>87.7663</v>
       </c>
       <c r="F81">
-        <v>-2.973361730575562</v>
+        <v>-2.973364591598511</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>-4.122543811798096</v>
+        <v>-4.122555732727051</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>95.40600000000001</v>
       </c>
       <c r="F86">
-        <v>97.18345642089844</v>
+        <v>97.18346405029297</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>-5.73928689956665</v>
+        <v>-5.739281177520752</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>11.04761219024658</v>
+        <v>11.04761600494385</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>-5.164585590362549</v>
+        <v>-5.164579391479492</v>
       </c>
     </row>
     <row r="91" spans="1:6">
